--- a/biology/Médecine/Maladie_vectorielle/Maladie_vectorielle.xlsx
+++ b/biology/Médecine/Maladie_vectorielle/Maladie_vectorielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie vectorielle est en médecine humaine ou vétérinaire, ou en phytopathologie une maladie qui est causée par un agent parasite véhiculé et inoculé ou déposé par un vecteur vivant (obligatoire dans la plupart des cas).  Ce vecteur est un organisme qui ne provoque pas lui-même la maladie mais qui est nécessaire à la dispersion de l'infection en transportant les agents pathogènes d'un hôte à l'autre. 
 Chez l'animal et l'être humain la plupart des « maladies à vecteur » sont des zoonoses, c'est-à-dire des maladies passant de l'homme à des animaux domestiques ou sauvages — ou inversement — et parfois des maladies émergentes ou réémergentes (ex : maladies vectorielles à tiques). 
@@ -512,7 +524,9 @@
           <t>Maladies en augmentations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la mondialisation de l'économie et de l'accélération et de la hausse des déplacements, les maladies infectieuses vectorielles prennent un poids épidémiologique et éco-épidémiologique croissant. 
 Il est devenu, malgré des moyens nouveaux considérables de diagnostic et traitement, très difficile de les juguler. 
@@ -545,7 +559,9 @@
           <t>Une maladie vectorielle nécessite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">une ou plusieurs « espèces-réservoir » de l'agent pathogène.
 un agent pathogène (virus, bactéries, protozoaires, filaires). Dans quelques rares cas ce pathogène peut affaiblir le vecteur, voire le tuer. Il arrive aussi que le parasite puisse modifier le comportement de son hôte (interactions durables), par exemple pour qu'il se fasse plus facilement manger, ce qui permet au parasite de pouvoir infecter un autre hôte nécessaire pour compléter son cycle de développement. En laboratoire, les tiques infectées par des borrélies montrent un comportement de recherche de proies plus actif, et se déplacent deux fois plus loin pour les rechercher quand il fait sec ou chaud (voir Article « borrélioses » et Article « Tiques » pour plus de détails).
@@ -581,9 +597,11 @@
           <t>Écoépidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs de ces maladies sont devenues des émergentes ou en plein développement, en raison de la pullulation de l'espèce vectrice (tique en particulier) ou de comportements à risque de la part des hommes (déforestation..) . Nombre des catastrophes induites par El Niño (comme dans le Pacifique intertropical de juillet 1982 à avril 1983[1] semblent aussi avoir des impacts écoépidémiologique, qui pourraient peut-être s'accentuer dans le contexte du dérèglement climatique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs de ces maladies sont devenues des émergentes ou en plein développement, en raison de la pullulation de l'espèce vectrice (tique en particulier) ou de comportements à risque de la part des hommes (déforestation..) . Nombre des catastrophes induites par El Niño (comme dans le Pacifique intertropical de juillet 1982 à avril 1983 semblent aussi avoir des impacts écoépidémiologique, qui pourraient peut-être s'accentuer dans le contexte du dérèglement climatique.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Exemples de maladies vectorielles : (non exhaustif)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paludisme, fièvre jaune, encéphalite de Saint-Louis, dengue ou fièvre du Nil occidental véhiculées par plusieurs espèces de moustiques (en).
 Peste bubonique, due au bacille (Yersinia pestis) transmise par des puces de rongeurs à l'Homme,
